--- a/outils_numeriques/Grilles_Eval.xlsx
+++ b/outils_numeriques/Grilles_Eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tools\git_repo\semester-5\outils_numeriques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7024B7-E3EF-471F-8C56-B98E376669E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E9B35-CBA5-475A-BF82-A4785574E5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -350,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -376,9 +376,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,10 +671,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC6" sqref="AC6"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A39" sqref="A8:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,60 +698,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -759,33 +759,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="G4" s="20" t="s">
+      <c r="E4" s="20"/>
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21"/>
-      <c r="K4" s="20" t="s">
+      <c r="H4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="21"/>
-      <c r="Q4" s="20" t="s">
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="20"/>
+      <c r="Q4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="22"/>
-      <c r="S4" s="21"/>
-      <c r="U4" s="20" t="s">
+      <c r="R4" s="21"/>
+      <c r="S4" s="20"/>
+      <c r="U4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="20"/>
     </row>
     <row r="5" spans="1:24" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:24" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
       <c r="W6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -878,7 +878,7 @@
       <c r="W7" s="2"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="7"/>
@@ -904,7 +904,7 @@
       <c r="W8" s="4"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
@@ -930,7 +930,7 @@
       <c r="W9" s="2"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="7"/>
@@ -956,7 +956,7 @@
       <c r="W10" s="4"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
@@ -982,7 +982,7 @@
       <c r="W11" s="2"/>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="7"/>
@@ -1008,7 +1008,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
@@ -1034,7 +1034,7 @@
       <c r="W13" s="2"/>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7"/>
@@ -1060,7 +1060,7 @@
       <c r="W14" s="4"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
@@ -1086,7 +1086,7 @@
       <c r="W15" s="2"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="7"/>
@@ -1112,7 +1112,7 @@
       <c r="W16" s="4"/>
       <c r="X16" s="13"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
@@ -1138,7 +1138,7 @@
       <c r="W17" s="2"/>
       <c r="X17" s="11"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="7"/>
@@ -1164,7 +1164,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="13"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
@@ -1190,7 +1190,7 @@
       <c r="W19" s="2"/>
       <c r="X19" s="11"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="7"/>
@@ -1216,7 +1216,7 @@
       <c r="W20" s="4"/>
       <c r="X20" s="13"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
@@ -1242,7 +1242,7 @@
       <c r="W21" s="2"/>
       <c r="X21" s="11"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="7"/>
@@ -1268,7 +1268,7 @@
       <c r="W22" s="4"/>
       <c r="X22" s="13"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
@@ -1294,7 +1294,7 @@
       <c r="W23" s="2"/>
       <c r="X23" s="11"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
@@ -1320,7 +1320,7 @@
       <c r="W24" s="4"/>
       <c r="X24" s="13"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
@@ -1346,7 +1346,7 @@
       <c r="W25" s="2"/>
       <c r="X25" s="11"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="7"/>
@@ -1372,7 +1372,7 @@
       <c r="W26" s="4"/>
       <c r="X26" s="13"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
@@ -1398,7 +1398,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="11"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="7"/>
@@ -1424,7 +1424,7 @@
       <c r="W28" s="4"/>
       <c r="X28" s="13"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
@@ -1450,7 +1450,7 @@
       <c r="W29" s="2"/>
       <c r="X29" s="11"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="7"/>
@@ -1476,7 +1476,7 @@
       <c r="W30" s="4"/>
       <c r="X30" s="13"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
@@ -1502,7 +1502,7 @@
       <c r="W31" s="2"/>
       <c r="X31" s="11"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
@@ -1528,7 +1528,7 @@
       <c r="W32" s="4"/>
       <c r="X32" s="13"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
@@ -1554,7 +1554,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="11"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
@@ -1580,7 +1580,7 @@
       <c r="W34" s="4"/>
       <c r="X34" s="13"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="6"/>
@@ -1606,7 +1606,7 @@
       <c r="W35" s="2"/>
       <c r="X35" s="11"/>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
@@ -1632,7 +1632,7 @@
       <c r="W36" s="4"/>
       <c r="X36" s="13"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="6"/>
@@ -1658,7 +1658,7 @@
       <c r="W37" s="2"/>
       <c r="X37" s="11"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
@@ -1684,7 +1684,7 @@
       <c r="W38" s="4"/>
       <c r="X38" s="13"/>
     </row>
-    <row r="39" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
@@ -1712,15 +1712,15 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="K4:O4"/>
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="U4:X4"/>
-    <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A2:X2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/outils_numeriques/Grilles_Eval.xlsx
+++ b/outils_numeriques/Grilles_Eval.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tools\git_repo\semester-5\outils_numeriques\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tools\git_repo\digital_methods\semester-5\outils_numeriques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E9B35-CBA5-475A-BF82-A4785574E5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBC926B-2CED-4CE8-B477-879FBE285488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="v2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>NOM</t>
   </si>
@@ -106,13 +107,43 @@
   </si>
   <si>
     <t>Bloc 1</t>
+  </si>
+  <si>
+    <t>S'APPROPRIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMS : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gpe : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ONIP / Outils Numériques pour l'Ingénieur.e en Physique </t>
+  </si>
+  <si>
+    <t>BLOC 1</t>
+  </si>
+  <si>
+    <t>BLOC 2</t>
+  </si>
+  <si>
+    <t>BLOC 3</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Compréhension du sujet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +175,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -159,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -346,11 +385,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -376,6 +428,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,10 +443,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -676,8 +746,8 @@
   </sheetPr>
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A39" sqref="A8:XFD39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,60 +768,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -759,33 +829,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="22"/>
+      <c r="G4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="19" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="22"/>
+      <c r="K4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="20"/>
-      <c r="Q4" s="19" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="22"/>
+      <c r="Q4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="U4" s="19" t="s">
+      <c r="R4" s="23"/>
+      <c r="S4" s="22"/>
+      <c r="U4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="20"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="22"/>
     </row>
     <row r="5" spans="1:24" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:24" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -1723,4 +1793,139 @@
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B408A4-E18F-4ACC-B8E2-C33B24138201}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="4" max="7" width="2.77734375" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" customWidth="1"/>
+    <col min="9" max="12" width="2.77734375" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="14" max="17" width="2.77734375" customWidth="1"/>
+    <col min="18" max="18" width="1.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="D4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="I5" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+      <c r="N5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="30"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="N5:Q5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/outils_numeriques/Grilles_Eval.xlsx
+++ b/outils_numeriques/Grilles_Eval.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tools\git_repo\digital_methods\semester-5\outils_numeriques\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBC926B-2CED-4CE8-B477-879FBE285488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01ABA3F-F335-4C37-B707-DA291CA1E003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="57">
   <si>
     <t>NOM</t>
   </si>
@@ -137,13 +137,73 @@
   </si>
   <si>
     <t>Compréhension du sujet</t>
+  </si>
+  <si>
+    <t>ANALYSER</t>
+  </si>
+  <si>
+    <t>Principe physique / Mathématique</t>
+  </si>
+  <si>
+    <t>Algorithme proposé</t>
+  </si>
+  <si>
+    <t>Découpage en actions élémentaires</t>
+  </si>
+  <si>
+    <t>Résultats attendus</t>
+  </si>
+  <si>
+    <t>REALISER</t>
+  </si>
+  <si>
+    <t>Code propre PEP8 / Commentaires</t>
+  </si>
+  <si>
+    <t>Découpage en fonctions</t>
+  </si>
+  <si>
+    <t>Création d'une bibliothèque</t>
+  </si>
+  <si>
+    <t>Documentation PEP257</t>
+  </si>
+  <si>
+    <t>VALIDER</t>
+  </si>
+  <si>
+    <t>Pertinence Résultats proposés</t>
+  </si>
+  <si>
+    <t>Cohérence Résultats / Théorie</t>
+  </si>
+  <si>
+    <t>Graphiques légendés</t>
+  </si>
+  <si>
+    <t>COMMUNIQUER</t>
+  </si>
+  <si>
+    <t>Rappel du contexte / Lien avec Physique</t>
+  </si>
+  <si>
+    <t>Présentation des résultats et analyse</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>Respect des consignes / cahier des charges</t>
+  </si>
+  <si>
+    <t>Evaluat.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,8 +243,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +261,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -428,6 +501,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,12 +524,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -458,7 +533,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -768,60 +873,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
     </row>
     <row r="2" spans="1:24" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -829,33 +934,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="E4" s="26"/>
+      <c r="G4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="22"/>
-      <c r="K4" s="21" t="s">
+      <c r="H4" s="27"/>
+      <c r="I4" s="26"/>
+      <c r="K4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
-      <c r="Q4" s="21" t="s">
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="26"/>
+      <c r="Q4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="23"/>
-      <c r="S4" s="22"/>
-      <c r="U4" s="21" t="s">
+      <c r="R4" s="27"/>
+      <c r="S4" s="26"/>
+      <c r="U4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="22"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="26"/>
     </row>
     <row r="5" spans="1:24" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:24" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -1797,35 +1902,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57B408A4-E18F-4ACC-B8E2-C33B24138201}">
-  <dimension ref="A1:Q9"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
-    <col min="3" max="3" width="1.6640625" customWidth="1"/>
-    <col min="4" max="7" width="2.77734375" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" customWidth="1"/>
-    <col min="9" max="12" width="2.77734375" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" customWidth="1"/>
-    <col min="14" max="17" width="2.77734375" customWidth="1"/>
-    <col min="18" max="18" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="5" max="18" width="2.77734375" customWidth="1"/>
+    <col min="19" max="19" width="4.77734375" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="17.5546875" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" customWidth="1"/>
+    <col min="23" max="23" width="1.6640625" customWidth="1"/>
+    <col min="24" max="37" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:37" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="45" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="T1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="45"/>
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+    </row>
+    <row r="3" spans="1:37" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -1840,92 +1987,1294 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="20"/>
+      <c r="T3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="33"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="20"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="D4" s="31" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="30"/>
+      <c r="T4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="2"/>
+      <c r="V4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="30"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="30"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="30"/>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="X5" s="22"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="22"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="37"/>
+      <c r="J6" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="37"/>
+      <c r="O6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="37"/>
+      <c r="X6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="37"/>
+      <c r="AC6" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="37"/>
+      <c r="AH6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="37"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="31" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I7" s="40"/>
+      <c r="J7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="31" t="s">
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N7" s="40"/>
+      <c r="O7" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="31" t="s">
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="41" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="D5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
-      <c r="I5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="30"/>
-      <c r="N5" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="30"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="T7" s="39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+      <c r="U7" s="39"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="40"/>
+      <c r="X7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG7" s="40"/>
+      <c r="AH7" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="D8" s="40"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43" t="s">
         <v>36</v>
       </c>
+      <c r="W8" s="40"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="44"/>
+      <c r="AD8" s="44"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="40"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="44"/>
+      <c r="AJ8" s="44"/>
+      <c r="AK8" s="44"/>
+    </row>
+    <row r="9" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="40"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+      <c r="AG9" s="40"/>
+      <c r="AH9" s="40"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="40"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A10" s="40"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" s="40"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="40"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="40"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="44"/>
+      <c r="AJ10" s="44"/>
+      <c r="AK10" s="44"/>
+    </row>
+    <row r="11" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="E12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="38"/>
+      <c r="V12" s="38"/>
+      <c r="X12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
+      <c r="AK12" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+    </row>
+    <row r="14" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="38"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+    </row>
+    <row r="16" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+    </row>
+    <row r="18" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="T19" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A20" s="40"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="T20" s="40"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="40"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="40"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="44"/>
+      <c r="AJ20" s="44"/>
+      <c r="AK20" s="44"/>
+    </row>
+    <row r="21" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="40"/>
+      <c r="P21" s="40"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="T21" s="40"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="40"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="40"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="40"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="40"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
+      <c r="AK21" s="40"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22" s="40"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+    </row>
+    <row r="23" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="40"/>
+      <c r="X23" s="40"/>
+      <c r="Y23" s="40"/>
+      <c r="Z23" s="40"/>
+      <c r="AA23" s="40"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="40"/>
+      <c r="AG23" s="40"/>
+      <c r="AH23" s="40"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
+      <c r="AK23" s="40"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="T24" s="40"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="40"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="40"/>
+      <c r="AC24" s="44"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="44"/>
+      <c r="AJ24" s="44"/>
+      <c r="AK24" s="44"/>
+    </row>
+    <row r="25" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="T25" s="40"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="40"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
+      <c r="AK25" s="40"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="W26" s="40"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="40"/>
+      <c r="AC26" s="44"/>
+      <c r="AD26" s="44"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="40"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="44"/>
+      <c r="AJ26" s="44"/>
+      <c r="AK26" s="44"/>
+    </row>
+    <row r="27" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="E28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="T28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="U28" s="38"/>
+      <c r="V28" s="38"/>
+      <c r="X28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD28" s="21"/>
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH28" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B29" s="38"/>
+      <c r="C29" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+    </row>
+    <row r="30" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="38"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+    </row>
+    <row r="32" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="B33" s="38"/>
+      <c r="C33" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+    </row>
+    <row r="34" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="U34" s="38"/>
+      <c r="V34" s="38"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="40"/>
+      <c r="O35" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB35" s="40"/>
+      <c r="AC35" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD35" s="42"/>
+      <c r="AE35" s="42"/>
+      <c r="AF35" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG35" s="40"/>
+      <c r="AH35" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="W36" s="40"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
+      <c r="AA36" s="44"/>
+      <c r="AB36" s="40"/>
+      <c r="AC36" s="44"/>
+      <c r="AD36" s="44"/>
+      <c r="AE36" s="44"/>
+      <c r="AF36" s="44"/>
+      <c r="AG36" s="40"/>
+      <c r="AH36" s="44"/>
+      <c r="AI36" s="44"/>
+      <c r="AJ36" s="44"/>
+      <c r="AK36" s="44"/>
+    </row>
+    <row r="37" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="40"/>
+      <c r="AI37" s="40"/>
+      <c r="AJ37" s="40"/>
+      <c r="AK37" s="40"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="W38" s="40"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
+      <c r="AA38" s="44"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="44"/>
+      <c r="AD38" s="44"/>
+      <c r="AE38" s="44"/>
+      <c r="AF38" s="44"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="44"/>
+      <c r="AI38" s="44"/>
+      <c r="AJ38" s="44"/>
+      <c r="AK38" s="44"/>
+    </row>
+    <row r="39" spans="1:37" ht="4.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A40" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="T40" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="C41" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="V41" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="N5:Q5"/>
+  <mergeCells count="14">
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="AC6:AF6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="T1:AK1"/>
+    <mergeCell ref="X4:AA4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="O4:R4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>